--- a/resouces/ColumnExcel/tbl_identification.xlsx
+++ b/resouces/ColumnExcel/tbl_identification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>列名</t>
   </si>
@@ -22,9 +22,6 @@
     <t>数据类型</t>
   </si>
   <si>
-    <t>主键</t>
-  </si>
-  <si>
     <t>是否非空</t>
   </si>
   <si>
@@ -35,9 +32,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>PRI</t>
   </si>
   <si>
     <t>NO</t>
@@ -176,8 +170,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -531,7 +525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -557,6 +551,26 @@
         <color auto="1"/>
       </top>
       <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -668,24 +682,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,7 +712,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,28 +730,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,10 +760,10 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,11 +821,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1131,20 +1146,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.05" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.05" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="27.3389830508475" customWidth="1"/>
+    <col min="1" max="1" width="17.3983050847458" customWidth="1"/>
     <col min="2" max="2" width="11.4406779661017" customWidth="1"/>
-    <col min="5" max="5" width="34.1186440677966" customWidth="1"/>
+    <col min="4" max="4" width="20.7966101694915" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1157,280 +1172,257 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
